--- a/my_kb.xlsx
+++ b/my_kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apaul\Downloads\new_kb_app_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E878D-0BD2-45F3-B96C-B488E131AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591CC53-3AD9-4D71-9705-EBBF5F0A98F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7A5EC7B-CC07-4517-9B82-B8CD67FCBA5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Issue Title</t>
   </si>
@@ -50,28 +50,40 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>Issues with DSC</t>
-  </si>
-  <si>
-    <t>Not able to see cases</t>
-  </si>
-  <si>
-    <t>Enable DSC in SF</t>
-  </si>
-  <si>
-    <t>Old</t>
+    <t>Ecalation Access</t>
+  </si>
+  <si>
+    <t>User need Escalation approval where Approve/Reject button is visible in case approval history</t>
+  </si>
+  <si>
+    <t>We need to add the user in the Case Escalation Request Queue</t>
+  </si>
+  <si>
+    <t>Request access</t>
+  </si>
+  <si>
+    <t>Credit Hold</t>
+  </si>
+  <si>
+    <t>Customer not able to create cases from SC</t>
+  </si>
+  <si>
+    <t>Send and email to DLcollections@csod.com.</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Not able to add DSC</t>
+  </si>
+  <si>
+    <t>Getting this error "This contact has the same email address as an active Support Central user. Duplicate Support Central users cannot be created, so this contact cannot be added as a Designated Support Contact. Please contact IT Support for assistance."</t>
+  </si>
+  <si>
+    <t>Search the contact from User in salesforce and add .Invalid/Test at the end of the email and save</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -443,17 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D0DDF-90A5-415C-B825-8FD55D4722D8}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,6 +511,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my_kb.xlsx
+++ b/my_kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apaul\Downloads\new_kb_app_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591CC53-3AD9-4D71-9705-EBBF5F0A98F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CBD134-5785-436C-A6BE-BE30A75492D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7A5EC7B-CC07-4517-9B82-B8CD67FCBA5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Issue Title</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Ecalation Access</t>
-  </si>
-  <si>
     <t>User need Escalation approval where Approve/Reject button is visible in case approval history</t>
   </si>
   <si>
@@ -84,6 +81,61 @@
   </si>
   <si>
     <t>Issue</t>
+  </si>
+  <si>
+    <t>Escalation Access</t>
+  </si>
+  <si>
+    <t>Portal deactivation request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This it not an official part of our Support Central management process. Normally we wait until credit hold kick in (which comes from Finance team) and then we block Support Central as part of this process.  INTERNAL:Suspending Support for Accounts on Credit Hold
+If there is a reason we should step outside the normal process please escalate to Lucy Bonilla.
+You could reach out to DLcollections@csod.com if you want to put them on credit hold right away since they are no longer paying their bills, that would kick off this process that blocks their access to support central with the warning shown in this KA  INTERNAL:Suspending Support for Accounts on Credit Hold 
+</t>
+  </si>
+  <si>
+    <t>JIT Authorization error</t>
+  </si>
+  <si>
+    <t>Refere to this KA: CSOD SAGA SSO Tool throwing JIT Authorization Error</t>
+  </si>
+  <si>
+    <t>Caller wants to deactivate the portal</t>
+  </si>
+  <si>
+    <t>Not receiving correct amount of Cornerstone to Salesforce 2.0 licenses</t>
+  </si>
+  <si>
+    <t>Cornerstone to Salesforce 2.0 licenses</t>
+  </si>
+  <si>
+    <t>We won't have a better process than "just ping Matt Idell". Since this is managed in a legacy Salesforce org, we can't build out a process for this. Please refer INC0157545.</t>
+  </si>
+  <si>
+    <t>Product Specific issues</t>
+  </si>
+  <si>
+    <t>This looks to be a product issue, from my time in supporting the LMS product I know that certifications is done in the product, not in Salesforce. In Support ops we can help with Salesforce and salesforce-connected apps, but we do not have access to or knowledge of the various product platforms.
+If you or your customer needs product support, you can open a Support case from within Salesforce with these instructions:
+1) Open case with yourself as the Contact to receive all notifications and optionally choose to hide this case from customer by unchecking 'visible in Support central' checkbox as described in this article:https://cornerstoneondemand.lightning.force.com/lightning/articles/Knowledge/INTERNAL-How-to-Open-a-Customer-Case-With-CSOD-Employee-as-Contact
+2) Open case with the customer as the contact so they receive all the notifications:https://cornerstoneondemand.lightning.force.com/lightning/articles/Knowledge/How-to-Create-a-Support-Case-for-a-Customer
+I've set this to Resolved but please reply back if you need anything else.</t>
+  </si>
+  <si>
+    <t>When system is comletely down</t>
+  </si>
+  <si>
+    <t>emailing servicedeskescalations@csod.com will create a ServiceNow ticket when Okta is not available  also calling 1-800-516-8127 and leaving a voicemail will create a SNOW ticket for IT</t>
+  </si>
+  <si>
+    <t>Pen Test</t>
+  </si>
+  <si>
+    <t>Pen Test request</t>
+  </si>
+  <si>
+    <t>Refer to this page: https://cornerstoneondemandinc.service-now.com/csc?id=kb_article&amp;table=kb_knowledge&amp;sys_kb_id=afc7301a93c592944e0bfe9a7bba102b&amp;spa=1</t>
   </si>
 </sst>
 </file>
@@ -107,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,12 +167,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D0DDF-90A5-415C-B825-8FD55D4722D8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,44 +557,122 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+    </row>
+    <row r="5" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/my_kb.xlsx
+++ b/my_kb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apaul\Downloads\new_kb_app_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CBD134-5785-436C-A6BE-BE30A75492D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1C25D8-4986-4E34-AD54-D55D1CD84EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7A5EC7B-CC07-4517-9B82-B8CD67FCBA5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Issue Title</t>
   </si>
@@ -53,21 +53,12 @@
     <t>User need Escalation approval where Approve/Reject button is visible in case approval history</t>
   </si>
   <si>
-    <t>We need to add the user in the Case Escalation Request Queue</t>
-  </si>
-  <si>
     <t>Request access</t>
   </si>
   <si>
     <t>Credit Hold</t>
   </si>
   <si>
-    <t>Customer not able to create cases from SC</t>
-  </si>
-  <si>
-    <t>Send and email to DLcollections@csod.com.</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>Getting this error "This contact has the same email address as an active Support Central user. Duplicate Support Central users cannot be created, so this contact cannot be added as a Designated Support Contact. Please contact IT Support for assistance."</t>
-  </si>
-  <si>
-    <t>Search the contact from User in salesforce and add .Invalid/Test at the end of the email and save</t>
   </si>
   <si>
     <t>Issue</t>
@@ -116,13 +104,6 @@
     <t>Product Specific issues</t>
   </si>
   <si>
-    <t>This looks to be a product issue, from my time in supporting the LMS product I know that certifications is done in the product, not in Salesforce. In Support ops we can help with Salesforce and salesforce-connected apps, but we do not have access to or knowledge of the various product platforms.
-If you or your customer needs product support, you can open a Support case from within Salesforce with these instructions:
-1) Open case with yourself as the Contact to receive all notifications and optionally choose to hide this case from customer by unchecking 'visible in Support central' checkbox as described in this article:https://cornerstoneondemand.lightning.force.com/lightning/articles/Knowledge/INTERNAL-How-to-Open-a-Customer-Case-With-CSOD-Employee-as-Contact
-2) Open case with the customer as the contact so they receive all the notifications:https://cornerstoneondemand.lightning.force.com/lightning/articles/Knowledge/How-to-Create-a-Support-Case-for-a-Customer
-I've set this to Resolved but please reply back if you need anything else.</t>
-  </si>
-  <si>
     <t>When system is comletely down</t>
   </si>
   <si>
@@ -136,19 +117,255 @@
   </si>
   <si>
     <t>Refer to this page: https://cornerstoneondemandinc.service-now.com/csc?id=kb_article&amp;table=kb_knowledge&amp;sys_kb_id=afc7301a93c592944e0bfe9a7bba102b&amp;spa=1</t>
+  </si>
+  <si>
+    <t>Community Issues </t>
+  </si>
+  <si>
+    <t>Issue with community login</t>
+  </si>
+  <si>
+    <t>The Community is owned by Alex Williams, and we work in partnership with them to make sure the SSO from Community to Support Central works correctly for DSC 
+Support Ops should not edit the emails in the Users in Community, nor can we reset passwords for the Community from our set. These issues should be sent to community@csod.com</t>
+  </si>
+  <si>
+    <t>Cornerstone insights report issue</t>
+  </si>
+  <si>
+    <t>Any issue with reporting</t>
+  </si>
+  <si>
+    <t>Assigne the ticket to IT-EBI-CUSTOMER-SUPPORT</t>
+  </si>
+  <si>
+    <t>Isuue</t>
+  </si>
+  <si>
+    <t>Support Site Issue</t>
+  </si>
+  <si>
+    <t>Error received</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>Partner Access for non-csod portal</t>
+  </si>
+  <si>
+    <t>Changes the email address to something like '.test' and then change it back to the original email. The error will be removed</t>
+  </si>
+  <si>
+    <t>Email Bounce error</t>
+  </si>
+  <si>
+    <t>Send and email to DLcollections@csod.com to remove the credit hold from Account</t>
+  </si>
+  <si>
+    <t>We need to add the user in the Case Escalation Request Queue from Salesforce Setup</t>
+  </si>
+  <si>
+    <t>Customer is not able to create cases from Support Central</t>
+  </si>
+  <si>
+    <t>OKTA tile request</t>
+  </si>
+  <si>
+    <t>Need to Add OKTA tile</t>
+  </si>
+  <si>
+    <t>Transfer the ticket to:
+IT-Ops-Service Desk AMS (Americas)
+IT-Ops-Service Desk EMEA (EMEA)
+IT-Ops-Service Desk APJ (APAC)</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For issues related to accessing CSOD customer sites through the Support Site tool, email the Support Site team DL SupportSite Team DLSupportSiteTeam@csod.com. 
+LXP Status Site - This ste https://edcast.csod.com/  , also known as the trust site, is managed by the CSOD Cloud Operation team, (Cloud Operations Director is currently Swapnil Babu) 
+CSOD Status Site – This ste https://status.csod.com/  and status.edcast.com, also known as the trust site, is managed by the CSOD Cloud Operation team, (Cloud Operations Director is currently Swapnil Babu). 
+Issues related to notifications from the site should also be retport to the Cloud Operation dloperationsteam@csod.com </t>
+  </si>
+  <si>
+    <t>System Down</t>
+  </si>
+  <si>
+    <t>not receiving correct amount of Cornerstone to Salesforce 2.0 licenses</t>
+  </si>
+  <si>
+    <t>Salesforce 2.0 licenses</t>
+  </si>
+  <si>
+    <t>We won't have a better process than "just ping Matt Idell". I wouldn't normally suggest this, but since this is managed in a legacy Salesforce org, we can't build out a process for this. INC0157545</t>
+  </si>
+  <si>
+    <t>status.csod.com related issue</t>
+  </si>
+  <si>
+    <t>Point of contact is Swapnil Babu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Migration notification </t>
+  </si>
+  <si>
+    <t>AWS Migration notification related issues</t>
+  </si>
+  <si>
+    <t>Point of contact is Tami Cutler</t>
+  </si>
+  <si>
+    <t>Search the contact from User in salesforce and add .Invalid/Test at the end of the email and save. Then try to select the DSC check box on contact</t>
+  </si>
+  <si>
+    <t>Partner teams audit every request to access cases for a new portal, even if they are already making cases on a different portal for that customer. you can reach out to the partner team but please let the Partner know in the future they can request access to any non-CSOD portal through making a Partner SNOW ticket, this is documented in this Partner KA: https://cornerstoneondemand.my.site.com/s/articles/How-to-get-Partner-access-to-Create-Cases-on-behalf-of-the-Client</t>
+  </si>
+  <si>
+    <t>Mass Updates to Customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we need to send a mass-email to customers, this can be done through the Marketing Communications team.  A request can be made here https://form.asana.com/?k=OJWvLXjk7WlgDCjDNfTMsg&amp;d=8820507044013 
+AI-generated content may be incorrect.And is review by leadership before going out. Emails from these team are sent from customers@cornerstoneondemand.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When A team member needs help from their local IT Service desk for their laptop, VPN, ect,  but can’t log into SNOW, there are a few options: 
+A co-worker/Support Ops can make a SNOW for IT on their behalf   
+they can email servicedeskescalations@csod.com to create a ServiceNow ticket when Okta is not available 
+Calling  1-800-516-8127 (US) and leaving a voicemail will create a SNOW ticket for IT </t>
+  </si>
+  <si>
+    <t>When SNOW Cannot be Accessed for A Team Member </t>
+  </si>
+  <si>
+    <t>Ticket To Sales Operations</t>
+  </si>
+  <si>
+    <t>Transferring a Service Now Ticket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Service Now tickets are outside the Support Ops scope of practice, they should be transferred to the correct team by assigning to the appropriate ‘asssignment group’ 
+IT GTM  Success - Support &amp; Service – This is the  queue for Support-related Salesforce issues that require dev work from the IT team. After troubleshooting the issue and confirming that is requires IT work, the ticket can be placed in this queue.  Things to check before transferring are: 
+Check with in Support Ops provate team channel of others know about the issue, or similar tickets exist 
+If possible, recreate in UAT 
+Confirm if it is a data issue or a functionality issue.  Add any detals like: 
+SF Object that seems to have the data or functionality issue 
+If this is widespread or a one-off 
+Most data issues can be fixed initially by Support Ops (wrong status, wrong relationship, ect) but the larger issue may need to be addressed by IT GTM  Success - Support &amp; Service or IT-EnterpiseDataManagement  if it is widepread or re-occurring 
+BEFORE TRANSFERRING to IT: If this requires any change to functionality, it should be converted to STRY first with approval from Support Ops and then assigned to the IT queue.  Please check with Support Ops leadership on conversion to STRY. 
+Put in clear notes to IT as to what the root issues and what troubleshooting has been done and put youself on the watch list a nd update Description to make it clear what the ask is. 
+IT GTM Sales and Marketing-  This is the queue for Sales-related Salesforce issues like Account changes (any fields which are not in the Support Information section) , issues with Opportuniries or contracts. Ensure that the description is clear and relevant details are added before transferring. 
+Parter Issues: 
+IT GTM Partner Systems – Requests to add access to non-CSOD customers in Support Central can be transferred here   
+GFO systems à This is the queue for Partner issues if created from the Partner directly in SNOW, or CSOD portal access issues for Partner 
+IT Ops Service Desk &lt;Region&gt;– This is the IT  Service Desk queue for IT-related issues like OKTA, Outlook or access to non-Salesforce systems.   Transfer tickets based on the region of the submitter.  Ie, If the submitter is based in EMEA, the ticket should go to the IT Ops Service Desk EMEA queue. 
+IT-GTM-SalesforcePlatform- For new salesforce accounts requests 
+IT-EnterpiseDataManagement - This is the queue for data cleanup, portals status fixes, ect 
+IT-EBI-Analytics - &gt;– This is the Data team queue for Business Analytics-related issues like Talbleau and Cornerstone Insights access.  This is the general queue, and most Customer Support requests will need to go to IT-EBI-CUSTOMER-SUPPORT 
+IT-EAS- Support à This is for the Galaxy à Salesforce integration  
+Some issues need to be transferred to teams that do not have a queue, but instead take cases via email.  In that case, the case should be closed and the submitter should be directed to email the correct team. </t>
+  </si>
+  <si>
+    <t>Product Plaform Questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a SNOW ticket is asking technical questions about a product platform (CSOD, Saba, ect) we can refer them to the  GCS Support team.  A typical reply could be: 
+This appears to be a product question, and the Support Ops team does not have access to or knowledge of the actual product platforms (CSOD, Saba, ect), we fix problems with Salesforce and Support Central.  
+If you have a product issue/question the GCS Support team can help, you can open a support case with yourself as a Contact (so that you get all the notifications) by following these instructions, making sure to follow every step to transfer the case to the team's queue and optionally hid from view on Support Central: https://cornerstoneondemand.lightning.force.com/lightning/articles/Knowledge/INTERNAL-How-to-Open-a-Customer-Case-With-CSOD-Employee-as-Contact </t>
+  </si>
+  <si>
+    <t>Salesforce P1 Issues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometime the issues we are seeing are resulting from a Salesforce outage. The Salesforce Trust Site is the place to see if there is a current issue with Salesforce.  https://status.salesforce.com/ 
+A screenshot of a computer
+Description automatically generatedSearching for our instance (cornerstone) will confirm if there is any site-wide issues. 
+The IT team should be engaged to open a P1 ticket with Salesforce when we are being affected by such an outage. </t>
+  </si>
+  <si>
+    <t>OMNI management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order for an agent to receive cases from OMNI, they need to have status = Available and the following in Salesforce 
+A Service Resources object attached to their User 
+Shifts attached to their Service Resource.  Shifts are uploaded on a regular bases for rotationing teams, and yearly for static shifts.  Shifts can be updated manually or by a new upload 
+If they are to receive cases from the queue, they will need Skills for the cases they should receive.  DSAs do not need skills.  Managers can update skills as agents train up on new products 
+Support Country and Support Region filled out on their User 
+The above items are the responsibily of Support Ops to create.  
+Omni logic is described in this document and these Knowledge articles about Routing and Skills and Customer Support Region routing.  
+OMNI Supervisor is available for manager, and access can be given by assigning the OMNI Supervisor permission set. </t>
+  </si>
+  <si>
+    <t>CSAT Survey Logic </t>
+  </si>
+  <si>
+    <t>The CSAT survey logic can be found in this  Article : https://cornerstoneondemand.lightning.force.com/lightning/r/Knowledge__kav/ka08Z000000ABUwQAO/view</t>
+  </si>
+  <si>
+    <t>Permission Set Assignments </t>
+  </si>
+  <si>
+    <t>GoldFinger Holdings JiraTicket Access – give access to Goldfinger Jira integration, and is  
+required to see any Jira Tickets  
+Escalation Triage – allows non-managers to approve escalations 
+Support Manager – give manager-level access to CSAT, Quality review, Escalations, ect 
+Publish Knowledge Article – allows user to publish articles 
+Case Sentiment Analysis Field Access – access to Sentiment Analysis fields in reporting 
+Manage Reports And Dashboards In Public Folders – allows user to Manage reports in public folders.  Should be given to managers.   Also allows user to Subscribe to reports and send these reports to other people 
+Omni Supervisor – gives access to OMNI Supervisor  
+Power App User – this gives permission to the Sentiment Analysis tab on cases 
+Create Known Issues Knowledge Record type – allows user to create Known Issues 
+Talkdesk User – give Talkdesk integration</t>
+  </si>
+  <si>
+    <t>Public Group Membership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LogInAsOtherUserPermission – allows User to login as Partner***  
+Customer Support – for all GCS 
+Portal Subscription Edit Access – allows edit access to Portal Subscriptions 
+The ability to Login as another salesforce user is provided with the ‘login as others’ Delegated Groups under Delegated Administration  </t>
+  </si>
+  <si>
+    <t>Editing Public List View for Support  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Operations has right to create and edit Public list views. To create a new List view, such as a Case list view, navigate to the Case listing and choose ‘New’ under List View controls: 
+Description automatically generatedList Views can only contains one Object, like Case.  
+Description automatically generatedWhen creating the new list view, ensure to share it with the group ‘All Internal Users’.   
+Add filters and logic that match what the requester has asked for.  Note that you can only use filters for fields on the object the list is for (ie only Cases or only Knowledge) and can’t use fields from other objects 
+Once the filters are added and saved, proxy in as the requesting user to ensure they see the List view as expected and the data is correct. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFDFA400"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFA4616"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA4616"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,13 +403,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D0DDF-90A5-415C-B825-8FD55D4722D8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,122 +777,314 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="160.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="334.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="44.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="262" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/my_kb.xlsx
+++ b/my_kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apaul\Downloads\new_kb_app_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1C25D8-4986-4E34-AD54-D55D1CD84EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13339FBC-9116-4CFD-8CE2-8CB32CB2305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7A5EC7B-CC07-4517-9B82-B8CD67FCBA5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Issue Title</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>When SNOW Cannot be Accessed for A Team Member </t>
-  </si>
-  <si>
-    <t>Ticket To Sales Operations</t>
   </si>
   <si>
     <t>Transferring a Service Now Ticket </t>
@@ -336,36 +333,24 @@
 Add filters and logic that match what the requester has asked for.  Note that you can only use filters for fields on the object the list is for (ie only Cases or only Knowledge) and can’t use fields from other objects 
 Once the filters are added and saved, proxy in as the requesting user to ensure they see the List view as expected and the data is correct. </t>
   </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFDFA400"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFA4616"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA4616"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,16 +388,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D0DDF-90A5-415C-B825-8FD55D4722D8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,13 +843,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1024,67 +1006,88 @@
       <c r="A21" t="s">
         <v>58</v>
       </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="160.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="334.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="44.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="262" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
